--- a/R/data/data_from_frank/season_export_02-2023.xlsx
+++ b/R/data/data_from_frank/season_export_02-2023.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8588397-7467-496A-86E6-341EA8C21710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10000" windowHeight="20000" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="2023-02" state="visible" r:id="rId4"/>
+    <sheet name="2023-02" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -403,18 +404,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -450,7 +453,56 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE5E5E5"/>
+          <bgColor rgb="FFE5E5E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE5E5E5"/>
+          <bgColor rgb="FFE5E5E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE5E5E5"/>
+          <bgColor rgb="FFE5E5E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -784,9 +836,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U51"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20" style="1" customWidth="1"/>
     <col min="2" max="3" width="16" style="1" customWidth="1"/>
@@ -796,7 +853,7 @@
     <col min="13" max="21" width="10" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40" customHeight="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -861,7 +918,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -923,7 +980,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -985,7 +1042,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -1047,7 +1104,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1109,7 +1166,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -1171,7 +1228,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1233,7 +1290,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -1295,7 +1352,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -1357,7 +1414,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -1419,7 +1476,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
@@ -1481,7 +1538,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -1543,7 +1600,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>44</v>
       </c>
@@ -1605,7 +1662,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -1667,7 +1724,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>48</v>
       </c>
@@ -1729,7 +1786,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>50</v>
       </c>
@@ -1791,7 +1848,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>52</v>
       </c>
@@ -1853,7 +1910,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>54</v>
       </c>
@@ -1915,7 +1972,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -1977,7 +2034,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
@@ -2039,7 +2096,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
@@ -2101,7 +2158,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>62</v>
       </c>
@@ -2163,7 +2220,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>64</v>
       </c>
@@ -2225,7 +2282,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>66</v>
       </c>
@@ -2287,7 +2344,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>68</v>
       </c>
@@ -2352,7 +2409,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>71</v>
       </c>
@@ -2414,7 +2471,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>73</v>
       </c>
@@ -2476,7 +2533,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>75</v>
       </c>
@@ -2541,7 +2598,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>78</v>
       </c>
@@ -2603,7 +2660,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>80</v>
       </c>
@@ -2665,7 +2722,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>82</v>
       </c>
@@ -2730,7 +2787,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>85</v>
       </c>
@@ -2792,7 +2849,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>87</v>
       </c>
@@ -2857,7 +2914,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>90</v>
       </c>
@@ -2919,7 +2976,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>92</v>
       </c>
@@ -2981,7 +3038,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>94</v>
       </c>
@@ -3043,7 +3100,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>96</v>
       </c>
@@ -3105,7 +3162,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>98</v>
       </c>
@@ -3167,7 +3224,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>100</v>
       </c>
@@ -3229,7 +3286,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>102</v>
       </c>
@@ -3291,7 +3348,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>104</v>
       </c>
@@ -3353,7 +3410,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>106</v>
       </c>
@@ -3415,7 +3472,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>108</v>
       </c>
@@ -3477,7 +3534,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>110</v>
       </c>
@@ -3542,7 +3599,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>113</v>
       </c>
@@ -3604,7 +3661,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>115</v>
       </c>
@@ -3666,7 +3723,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>117</v>
       </c>
@@ -3728,7 +3785,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>119</v>
       </c>
@@ -3790,7 +3847,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>121</v>
       </c>
@@ -3855,7 +3912,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>124</v>
       </c>
@@ -3917,7 +3974,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>126</v>
       </c>
@@ -3981,6 +4038,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>